--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -5,13 +5,13 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veronica.villarreal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veronica.villarreal\Documents\Taller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD5442-E992-4A1A-B18B-6019B5DDEE0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05872A5B-DA13-4517-8F88-292C691D57CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UWl78cvN0XqaitdnNHB26SBYV8IHx51ljBBm2/utOf06OkUhSE6/OY3ARbchtLnSiE8u8E4Ym/pVwWRFLKsvew==" workbookSaltValue="RnUpkr5wLpjmxf1+OjNlrA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimientos" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="105">
   <si>
     <t>CodigoBarra</t>
   </si>
@@ -346,13 +346,13 @@
     <t>Inventario</t>
   </si>
   <si>
-    <t>Entradas y salidas</t>
-  </si>
-  <si>
     <t>W 719/45</t>
   </si>
   <si>
     <t>..</t>
+  </si>
+  <si>
+    <t>Entradas y salidas.</t>
   </si>
 </sst>
 </file>
@@ -794,206 +794,6 @@
   <dxfs count="48">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1160,6 +960,56 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1473,6 +1323,156 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2547,25 +2547,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A23478B5-9BDF-45E8-AAF1-872E157E4B84}" name="Tabla3" displayName="Tabla3" ref="B5:I71" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A23478B5-9BDF-45E8-AAF1-872E157E4B84}" name="Tabla3" displayName="Tabla3" ref="B5:I71" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="B5:I71" xr:uid="{E551C6D7-42EB-4126-8685-B4731CBAB766}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DE3AAA3D-2E03-41D4-89C6-90C63FED7A66}" name="Fecha" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{2439EC05-ED3D-41EB-ADA5-BC47F1FC11CB}" name="CodigoBarra" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{88FBB425-C430-420C-B90A-A8EAA23AED38}" name="Cantidad" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{7FFD76F1-6D49-442C-98A6-3745C2D60F54}" name="Tipo" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{DE3AAA3D-2E03-41D4-89C6-90C63FED7A66}" name="Fecha" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2439EC05-ED3D-41EB-ADA5-BC47F1FC11CB}" name="CodigoBarra" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{88FBB425-C430-420C-B90A-A8EAA23AED38}" name="Cantidad" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{7FFD76F1-6D49-442C-98A6-3745C2D60F54}" name="Tipo" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(C6,Inventario!B:H,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6AEDD884-B221-4B79-AF31-090D5E3DF783}" name="Marca" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{6AEDD884-B221-4B79-AF31-090D5E3DF783}" name="Marca" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(C6,Inventario!B:H,6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{58450B3F-E3D5-443E-BA8D-9B26292FFAB3}" name="Codigo" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{58450B3F-E3D5-443E-BA8D-9B26292FFAB3}" name="Codigo" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(C6,Inventario!B:H,7,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{26060C90-13B0-4267-90DF-F2FB9AF393E0}" name="PrecioVenta" dataDxfId="32" dataCellStyle="Millares">
+    <tableColumn id="7" xr3:uid="{26060C90-13B0-4267-90DF-F2FB9AF393E0}" name="PrecioVenta" dataDxfId="17" dataCellStyle="Millares">
       <calculatedColumnFormula>VLOOKUP(C6,Inventario!B:H,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9D5C50A9-8A35-49F2-9333-CAE09CC103E3}" name="Stock" dataDxfId="31">
+    <tableColumn id="8" xr3:uid="{9D5C50A9-8A35-49F2-9333-CAE09CC103E3}" name="Stock" dataDxfId="16">
       <calculatedColumnFormula>SUMIFS($D$4:D6,$C$4:C6,Movimientos!$C6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2574,23 +2574,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla6" displayName="Tabla6" ref="B5:K72" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla6" displayName="Tabla6" ref="B5:K72" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B5:K72" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CodigoBarra" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Stock" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CodigoBarra" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Stock" dataDxfId="8">
       <calculatedColumnFormula>SUMIF(Movimientos!C:C,B6,Movimientos!D:D)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PrecioCosto" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PrecioVenta" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Tipo" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Marca" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Codigo" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="." dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PrecioCosto" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PrecioVenta" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Marca" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Codigo" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="." dataDxfId="2">
       <calculatedColumnFormula>IF( Tabla6[[#This Row],[Stock]]=0, 0,   IF(   Tabla6[[#This Row],[Stock]] =1, 1, 2) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EE65230A-4A5C-47C4-BEBC-3805656CF335}" name="Foto" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{2C540DDA-0B55-451C-946E-D947021CFA82}" name=".." dataDxfId="20">
+    <tableColumn id="15" xr3:uid="{EE65230A-4A5C-47C4-BEBC-3805656CF335}" name="Foto" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{2C540DDA-0B55-451C-946E-D947021CFA82}" name=".." dataDxfId="0">
       <calculatedColumnFormula>IF( Tabla6[[#This Row],[Stock]]=0, "Sin Stock",   IF(   Tabla6[[#This Row],[Stock]] =1, "Solo uno", "Ok") )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2883,9 +2883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2902,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4983,77 +4983,77 @@
     <protectedRange sqref="B6:D71" name="Rango1"/>
   </protectedRanges>
   <conditionalFormatting sqref="C65:C71 C6:C50">
-    <cfRule type="expression" dxfId="19" priority="146">
+    <cfRule type="expression" dxfId="41" priority="146">
       <formula>#REF!&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="18" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>$C65&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7 C9 C13:C16 C27 C29:C33 C35:C42 C46:C47 C49 C65:C70 D6:D70">
-    <cfRule type="expression" dxfId="17" priority="56">
+    <cfRule type="expression" dxfId="39" priority="56">
       <formula>$C7&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 C17 C28 C43 C45 C71:D71">
-    <cfRule type="expression" dxfId="16" priority="57">
+    <cfRule type="expression" dxfId="38" priority="57">
       <formula>#REF!&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C12">
-    <cfRule type="expression" dxfId="15" priority="55">
+    <cfRule type="expression" dxfId="37" priority="55">
       <formula>$C11&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C21">
-    <cfRule type="expression" dxfId="14" priority="54">
+    <cfRule type="expression" dxfId="36" priority="54">
       <formula>#REF!&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="13" priority="58">
+    <cfRule type="expression" dxfId="35" priority="58">
       <formula>$D25&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="12" priority="53">
+    <cfRule type="expression" dxfId="34" priority="53">
       <formula>$C35&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="11" priority="59">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>$C43&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="10" priority="60">
+    <cfRule type="expression" dxfId="32" priority="60">
       <formula>$C52&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="9" priority="61">
+    <cfRule type="expression" dxfId="31" priority="61">
       <formula>$B48&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D71">
-    <cfRule type="expression" dxfId="8" priority="52">
+    <cfRule type="expression" dxfId="30" priority="52">
       <formula>$C6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C63">
-    <cfRule type="expression" dxfId="7" priority="51">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$C52&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="6" priority="49">
+    <cfRule type="expression" dxfId="28" priority="49">
       <formula>$C49&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I71">
-    <cfRule type="cellIs" dxfId="5" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5099,9 +5099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O58" sqref="O58"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L5" s="12"/>
     </row>
@@ -5894,7 +5894,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" s="40">
         <f>IF( Tabla6[[#This Row],[Stock]]=0, 0,   IF(   Tabla6[[#This Row],[Stock]] =1, 1, 2) )</f>
@@ -7137,27 +7137,27 @@
     <protectedRange sqref="D6:H72 J6:J72 B6:B72" name="Rango1"/>
   </protectedRanges>
   <conditionalFormatting sqref="B1048568:H1048569">
-    <cfRule type="expression" dxfId="4" priority="78">
+    <cfRule type="expression" dxfId="15" priority="78">
       <formula>#REF!&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$C59&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1048535:H1048567">
-    <cfRule type="expression" dxfId="2" priority="123">
+    <cfRule type="expression" dxfId="13" priority="123">
       <formula>$C41&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1048473:H1048534">
-    <cfRule type="expression" dxfId="1" priority="131">
+    <cfRule type="expression" dxfId="12" priority="131">
       <formula>$C3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1048570:H1048576">
-    <cfRule type="expression" dxfId="0" priority="133">
+    <cfRule type="expression" dxfId="11" priority="133">
       <formula>$C30&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
